--- a/pred_ohlcv/54_21/2020-01-16 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PPT ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-17442.73193579</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-17373.10583579</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-23239.41313579</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-23491.81503579001</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-29026.81569392001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-28074.10789392001</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-26220.75959392001</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-26296.12169392001</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-22243.05849392001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-24820.36377766</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-25072.80377766</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-23173.35377766</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-22254.02927766</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-20397.65497766</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-34505.62937766001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-31141.80647766001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-30807.90647766001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-30807.90647766001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-31094.53687766001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-31359.46677766001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-20431.70537766001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-30920.71837766001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-30686.42437766001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-30965.90367766</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-30965.90367766</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-35096.41046788001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-35096.41046788001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-35208.50516788001</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-41075.66086788001</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-40451.83696788001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-40451.83696788001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-40442.14336788001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-41594.46526788001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-22460.83168749001</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-24483.86308749001</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-28533.82338749001</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-28226.69218749001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-32377.35798749002</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-40385.96938749002</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-40460.37738749002</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-42762.74968749002</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-41410.62938749002</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-42774.96288749003</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-42771.98745666003</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-44683.20995666003</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-44253.18495666003</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-44183.80748749003</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-44297.64098749003</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-44557.20211832003</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-44935.06920912002</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-48833.04400912002</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-48796.10400912002</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-48796.10400912002</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-44223.48289336002</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-48908.28939336002</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-46832.42469336003</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-48044.29969336003</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-47963.29969336003</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-48121.20269336003</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-44446.87319336002</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-44446.87319336002</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-44363.27319336002</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-46672.91359336002</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-46670.91359336002</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-46929.31919336002</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-46929.31919336002</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-46929.31919336002</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-49356.09269336002</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-49336.09269336002</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-49564.86269336002</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-49226.38729336001</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-49257.05389336001</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-47210.53179336001</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-47987.75449336001</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-47775.57709336001</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-47775.57709336001</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-47652.07709336001</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-43585.70539336</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-43348.79169336001</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-43764.70189336</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PPT ohlcv.xlsx
@@ -2784,7 +2784,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-24820.36377766</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-25072.80377766</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-23173.35377766</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-22254.02927766</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-20397.65497766</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-34505.62937766001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-31141.80647766001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-30807.90647766001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-30807.90647766001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-31094.53687766001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-31359.46677766001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-20431.70537766001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-30920.71837766001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-30686.42437766001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-30965.90367766</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-30965.90367766</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-35096.41046788001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-35096.41046788001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-35208.50516788001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-41075.66086788001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-40451.83696788001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-40451.83696788001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-40442.14336788001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-41594.46526788001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-21885.59678749001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-22460.83168749001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-24483.86308749001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-28533.82338749001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-28226.69218749001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-42762.74968749002</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-41897.98668749003</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-41410.62938749002</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-40353.06608749002</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-39918.88478749002</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-39924.59458749002</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-42625.95458749002</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-43045.95458749002</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-42110.70258749002</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-42110.70258749002</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-41709.88088749003</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-42636.25748749003</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-42774.96288749003</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-42771.98745666003</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-44299.98745666003</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-44297.98745666003</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-44683.20995666003</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-44489.15175666003</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-44253.18495666003</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-44253.18495666003</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-44183.80748749003</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-44297.64098749003</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-44077.56818749003</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-44077.56821832003</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-44557.20211832003</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-44624.95531832003</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-44622.95531832003</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-44772.95531832003</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-44761.00867801002</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-44811.00867801002</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-44010.48520884002</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-45750.33596364002</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-45748.33596364002</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-44471.64060912002</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-44922.21040912002</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-44920.21040912002</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-44937.06920912002</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-45212.29150912002</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-46230.84900912002</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-46469.41160912002</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-46469.41160912002</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-45094.61160912002</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-45092.61160912002</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-49662.44310912002</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-49424.19940912002</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-49424.19940912002</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-48951.70030912002</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-49439.69070912002</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-48551.61550912002</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-48451.61550912002</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-48691.25550912002</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-48962.16470912002</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-48890.91310912002</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-48890.91310912002</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-37663.53930388002</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-35656.66999336002</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-35656.66999336002</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-35656.66999336002</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-43094.66159336002</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-43094.66159336002</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-48908.28939336002</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-46737.89909336003</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-48592.75199336003</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-48582.75199336003</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-45818.01539336002</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-44446.87319336002</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-44446.87319336002</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-44363.27319336002</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-46672.91359336002</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-46670.91359336002</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-46929.31919336002</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-46929.31919336002</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-49356.09269336002</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-49336.09269336002</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-49564.86269336002</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-49226.38729336001</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-49257.05389336001</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-49693.39979336001</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-48561.73119336001</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-48548.37099336001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-48559.37099336001</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-47210.53179336001</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-47210.53179336001</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-47987.75449336001</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-47775.57709336001</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-47775.57709336001</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-47652.07709336001</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-43348.79169336001</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-43764.70189336</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
